--- a/Code/Results/Cases/Case_2_250/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_250/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.206976794040827</v>
+        <v>0.6206553381867081</v>
       </c>
       <c r="C2">
-        <v>0.1463847073353826</v>
+        <v>0.3267770552806262</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1545319900463227</v>
+        <v>0.2783447425719281</v>
       </c>
       <c r="F2">
-        <v>1.016438552533359</v>
+        <v>1.945874857898332</v>
       </c>
       <c r="G2">
-        <v>0.3201109416269858</v>
+        <v>0.6882202465645761</v>
       </c>
       <c r="H2">
-        <v>0.3078642674560896</v>
+        <v>0.8093703542944155</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.07022119396512494</v>
+        <v>0.05405308978529888</v>
       </c>
       <c r="K2">
-        <v>0.9012358762365693</v>
+        <v>0.285285936532631</v>
       </c>
       <c r="L2">
-        <v>0.4245159083086492</v>
+        <v>0.4570528690655919</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.270254485774018</v>
+        <v>2.992967561356707</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.050161705302969</v>
+        <v>0.5744671232763494</v>
       </c>
       <c r="C3">
-        <v>0.1513494562241107</v>
+        <v>0.3293776342582859</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.14414527560686</v>
+        <v>0.2770727828316808</v>
       </c>
       <c r="F3">
-        <v>0.9749567437509015</v>
+        <v>1.948879681086069</v>
       </c>
       <c r="G3">
-        <v>0.323354517597501</v>
+        <v>0.6950705483605475</v>
       </c>
       <c r="H3">
-        <v>0.3154624289216557</v>
+        <v>0.8163355163702661</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.06559549787775154</v>
+        <v>0.05245750387063808</v>
       </c>
       <c r="K3">
-        <v>0.78961816926045</v>
+        <v>0.2496342426151443</v>
       </c>
       <c r="L3">
-        <v>0.377295488124588</v>
+        <v>0.4457837983816972</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.292682338539535</v>
+        <v>3.021829277669667</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9540094191845583</v>
+        <v>0.5462013731338971</v>
       </c>
       <c r="C4">
-        <v>0.1545379943281926</v>
+        <v>0.3310632386890475</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1379231246725787</v>
+        <v>0.2764002169633955</v>
       </c>
       <c r="F4">
-        <v>0.9511519899896186</v>
+        <v>1.951701272475148</v>
       </c>
       <c r="G4">
-        <v>0.3261715044673963</v>
+        <v>0.6996966688780901</v>
       </c>
       <c r="H4">
-        <v>0.3206417013273963</v>
+        <v>0.8209312980085173</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06275277317285699</v>
+        <v>0.05147243164009652</v>
       </c>
       <c r="K4">
-        <v>0.7210173052431657</v>
+        <v>0.2276778722190755</v>
       </c>
       <c r="L4">
-        <v>0.348540819470017</v>
+        <v>0.4390296521563215</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.309270450816072</v>
+        <v>3.041100718047886</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9148489324106208</v>
+        <v>0.5347073514663236</v>
       </c>
       <c r="C5">
-        <v>0.1558722334704772</v>
+        <v>0.3317725080468126</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1354248271929386</v>
+        <v>0.2761534821038509</v>
       </c>
       <c r="F5">
-        <v>0.9418522615481137</v>
+        <v>1.953096923677791</v>
       </c>
       <c r="G5">
-        <v>0.3275188521300265</v>
+        <v>0.7016874233062751</v>
       </c>
       <c r="H5">
-        <v>0.3228780152626172</v>
+        <v>0.8228844266990123</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.06159348978557233</v>
+        <v>0.05106967825046382</v>
       </c>
       <c r="K5">
-        <v>0.6930383636368305</v>
+        <v>0.2187144606285187</v>
       </c>
       <c r="L5">
-        <v>0.3368781294141456</v>
+        <v>0.4363190541772468</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.316713996880267</v>
+        <v>3.049343834289488</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9083474026184888</v>
+        <v>0.5328002831919036</v>
       </c>
       <c r="C6">
-        <v>0.1560958794674772</v>
+        <v>0.3318916338550206</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1350121878599637</v>
+        <v>0.2761141655866055</v>
       </c>
       <c r="F6">
-        <v>0.9403317554073283</v>
+        <v>1.95334352539524</v>
       </c>
       <c r="G6">
-        <v>0.3277543897955084</v>
+        <v>0.702024361676358</v>
       </c>
       <c r="H6">
-        <v>0.3232568464508248</v>
+        <v>0.8232135945154795</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.0614009342821511</v>
+        <v>0.05100272180939314</v>
       </c>
       <c r="K6">
-        <v>0.6883908740872613</v>
+        <v>0.2172251437216772</v>
       </c>
       <c r="L6">
-        <v>0.3349447335025673</v>
+        <v>0.4358714918017199</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.317990587685827</v>
+        <v>3.050736144197501</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9534812108111907</v>
+        <v>0.5460462603866176</v>
       </c>
       <c r="C7">
-        <v>0.1545558475659998</v>
+        <v>0.3310727135159013</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1378892831102583</v>
+        <v>0.2763967786043331</v>
       </c>
       <c r="F7">
-        <v>0.9510249703672855</v>
+        <v>1.951719099026548</v>
       </c>
       <c r="G7">
-        <v>0.3261888784150386</v>
+        <v>0.6997230894837827</v>
       </c>
       <c r="H7">
-        <v>0.3206713565521397</v>
+        <v>0.8209573133336008</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.06273714238827566</v>
+        <v>0.0514670053152102</v>
       </c>
       <c r="K7">
-        <v>0.7206400752221356</v>
+        <v>0.2275570525450945</v>
       </c>
       <c r="L7">
-        <v>0.3483833157936687</v>
+        <v>0.4389929266160522</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.309368100411874</v>
+        <v>3.041210309078636</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.152872495716025</v>
+        <v>0.6047106346291571</v>
       </c>
       <c r="C8">
-        <v>0.1480672416051103</v>
+        <v>0.3276553163445488</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1509173117711846</v>
+        <v>0.2778837132711516</v>
       </c>
       <c r="F8">
-        <v>1.001779011524746</v>
+        <v>1.946708370792066</v>
       </c>
       <c r="G8">
-        <v>0.3210529927340744</v>
+        <v>0.6904950331436552</v>
       </c>
       <c r="H8">
-        <v>0.3103752709488958</v>
+        <v>0.811705739577441</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.06862664510296668</v>
+        <v>0.05350406113381112</v>
       </c>
       <c r="K8">
-        <v>0.8627598618911918</v>
+        <v>0.2730073005281497</v>
       </c>
       <c r="L8">
-        <v>0.4081816370512428</v>
+        <v>0.4531331729395731</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.277387687205291</v>
+        <v>3.002597349552317</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.545480535338584</v>
+        <v>0.7204650701385447</v>
       </c>
       <c r="C9">
-        <v>0.1364717996858964</v>
+        <v>0.321657167297392</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1777833491724152</v>
+        <v>0.2816568683676763</v>
       </c>
       <c r="F9">
-        <v>1.115369581785828</v>
+        <v>1.944622227773266</v>
       </c>
       <c r="G9">
-        <v>0.3179163242965757</v>
+        <v>0.6757334140824369</v>
       </c>
       <c r="H9">
-        <v>0.2944291131282739</v>
+        <v>0.7960930197198977</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08016662734920033</v>
+        <v>0.05745521526228003</v>
       </c>
       <c r="K9">
-        <v>1.141257662638196</v>
+        <v>0.3615883772946518</v>
       </c>
       <c r="L9">
-        <v>0.5275843019962281</v>
+        <v>0.4821628156535098</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.238194481708646</v>
+        <v>2.939176723485659</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.83574422078442</v>
+        <v>0.8059105286681927</v>
       </c>
       <c r="C10">
-        <v>0.1286641872070895</v>
+        <v>0.3176768995585313</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1984524197213204</v>
+        <v>0.284948178536645</v>
       </c>
       <c r="F10">
-        <v>1.208646012528092</v>
+        <v>1.947798491924985</v>
       </c>
       <c r="G10">
-        <v>0.32040279135677</v>
+        <v>0.6669238491234069</v>
       </c>
       <c r="H10">
-        <v>0.2855437711155346</v>
+        <v>0.7861607397058705</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.0886559143025778</v>
+        <v>0.06033072540976292</v>
       </c>
       <c r="K10">
-        <v>1.346264205443617</v>
+        <v>0.4263118002328383</v>
       </c>
       <c r="L10">
-        <v>0.6169779356507377</v>
+        <v>0.5042737372267254</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.225441501941788</v>
+        <v>2.90007838213576</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.968387371458675</v>
+        <v>0.8448621244457968</v>
       </c>
       <c r="C11">
-        <v>0.1252722357951459</v>
+        <v>0.315958328200372</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.2080873178690439</v>
+        <v>0.2865575194864718</v>
       </c>
       <c r="F11">
-        <v>1.253506469715035</v>
+        <v>1.950264128018517</v>
       </c>
       <c r="G11">
-        <v>0.3227068301093254</v>
+        <v>0.6633588554547671</v>
       </c>
       <c r="H11">
-        <v>0.2821733764589425</v>
+        <v>0.7819755529435781</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09252419577985194</v>
+        <v>0.0616327472216156</v>
       </c>
       <c r="K11">
-        <v>1.439736828829183</v>
+        <v>0.4556739814019863</v>
       </c>
       <c r="L11">
-        <v>0.6580942493137059</v>
+        <v>0.5145005725524356</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.223524321729869</v>
+        <v>2.883919213253009</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.018719612461439</v>
+        <v>0.8596231178937614</v>
       </c>
       <c r="C12">
-        <v>0.1240112577271137</v>
+        <v>0.3153207567278216</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.2117718388096534</v>
+        <v>0.2871829858600208</v>
       </c>
       <c r="F12">
-        <v>1.270869122705804</v>
+        <v>1.951344375344064</v>
       </c>
       <c r="G12">
-        <v>0.3237597826874534</v>
+        <v>0.6620725733127983</v>
       </c>
       <c r="H12">
-        <v>0.2809987882574703</v>
+        <v>0.7804385693877265</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.0939902717817489</v>
+        <v>0.06212489657890075</v>
       </c>
       <c r="K12">
-        <v>1.47517399468623</v>
+        <v>0.4667805251117727</v>
       </c>
       <c r="L12">
-        <v>0.6737362547064123</v>
+        <v>0.5183972113485709</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.22339264819496</v>
+        <v>2.878034101683099</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.007874795943621</v>
+        <v>0.8564436051426014</v>
       </c>
       <c r="C13">
-        <v>0.1242817793036064</v>
+        <v>0.3154574818524587</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.2109766677921954</v>
+        <v>0.2870475681570497</v>
       </c>
       <c r="F13">
-        <v>1.267112660260295</v>
+        <v>1.951105209724261</v>
       </c>
       <c r="G13">
-        <v>0.3235247884556571</v>
+        <v>0.662346762852188</v>
       </c>
       <c r="H13">
-        <v>0.2812471481101113</v>
+        <v>0.7807674584870625</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.09367446566496085</v>
+        <v>0.06201894376909678</v>
       </c>
       <c r="K13">
-        <v>1.467539965914284</v>
+        <v>0.4643890886132169</v>
       </c>
       <c r="L13">
-        <v>0.6703641380071161</v>
+        <v>0.517556939169225</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.223393979658837</v>
+        <v>2.879291156706572</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.972526067445472</v>
+        <v>0.8460763077160891</v>
       </c>
       <c r="C14">
-        <v>0.1251680208044998</v>
+        <v>0.3159056101240321</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.2083897089498095</v>
+        <v>0.2866086558796184</v>
       </c>
       <c r="F14">
-        <v>1.254927237330207</v>
+        <v>1.950350064491317</v>
       </c>
       <c r="G14">
-        <v>0.3227897701484963</v>
+        <v>0.6632517551382691</v>
       </c>
       <c r="H14">
-        <v>0.2820746734370445</v>
+        <v>0.7818481454920345</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.09264478398684872</v>
+        <v>0.06167325479410835</v>
       </c>
       <c r="K14">
-        <v>1.442651379987581</v>
+        <v>0.4565879732246287</v>
       </c>
       <c r="L14">
-        <v>0.6593796367477154</v>
+        <v>0.514820672742573</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.223501364709577</v>
+        <v>2.883430351151446</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.950887902950285</v>
+        <v>0.839727426777813</v>
       </c>
       <c r="C15">
-        <v>0.1257139425779457</v>
+        <v>0.3161818217525418</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.2068098884951866</v>
+        <v>0.2863418965360935</v>
       </c>
       <c r="F15">
-        <v>1.247512938306286</v>
+        <v>1.949906596800275</v>
       </c>
       <c r="G15">
-        <v>0.3223634147686951</v>
+        <v>0.6638143871844377</v>
       </c>
       <c r="H15">
-        <v>0.2825949598441895</v>
+        <v>0.7825163286255972</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.09201424555708826</v>
+        <v>0.06146139258227379</v>
       </c>
       <c r="K15">
-        <v>1.427412075873349</v>
+        <v>0.4518079465953235</v>
       </c>
       <c r="L15">
-        <v>0.6526609346978915</v>
+        <v>0.5131477426880622</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.223645640070458</v>
+        <v>2.885996205111653</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.827089174359742</v>
+        <v>0.8033665216762813</v>
       </c>
       <c r="C16">
-        <v>0.1288891168447428</v>
+        <v>0.3177910627664637</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1978276497305131</v>
+        <v>0.2848452536261021</v>
       </c>
       <c r="F16">
-        <v>1.205765309193282</v>
+        <v>1.947657878197901</v>
       </c>
       <c r="G16">
-        <v>0.3202768109525138</v>
+        <v>0.667165740467361</v>
       </c>
       <c r="H16">
-        <v>0.2857779798375759</v>
+        <v>0.7864409502633123</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.08840326930908304</v>
+        <v>0.0602455109873361</v>
       </c>
       <c r="K16">
-        <v>1.340160723373174</v>
+        <v>0.4243912301967327</v>
       </c>
       <c r="L16">
-        <v>0.6143005735737717</v>
+        <v>0.5036087566336818</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.225647961352294</v>
+        <v>2.9011671648137</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.751308094064001</v>
+        <v>0.7810806338040663</v>
       </c>
       <c r="C17">
-        <v>0.1308782563453477</v>
+        <v>0.3188018435612641</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1923786481515251</v>
+        <v>0.2839557702982844</v>
       </c>
       <c r="F17">
-        <v>1.180794317596764</v>
+        <v>1.946539644108725</v>
       </c>
       <c r="G17">
-        <v>0.3193053251845157</v>
+        <v>0.6693350772265134</v>
       </c>
       <c r="H17">
-        <v>0.2879062206106013</v>
+        <v>0.788933855765066</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.08618992360948852</v>
+        <v>0.05949803563024858</v>
       </c>
       <c r="K17">
-        <v>1.286696792325273</v>
+        <v>0.4075507944153287</v>
       </c>
       <c r="L17">
-        <v>0.590888241734703</v>
+        <v>0.4977998559286902</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.227895911173874</v>
+        <v>2.910890788732189</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.707776292878492</v>
+        <v>0.7682701566120613</v>
       </c>
       <c r="C18">
-        <v>0.1320373634315484</v>
+        <v>0.3193918857437197</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1892662412517225</v>
+        <v>0.2834547197081392</v>
       </c>
       <c r="F18">
-        <v>1.166658614919712</v>
+        <v>1.945992555127319</v>
       </c>
       <c r="G18">
-        <v>0.318856205186691</v>
+        <v>0.6706244704659241</v>
       </c>
       <c r="H18">
-        <v>0.2891932157146826</v>
+        <v>0.7903990602107029</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.08491745409013873</v>
+        <v>0.05906753854855396</v>
       </c>
       <c r="K18">
-        <v>1.255965244684887</v>
+        <v>0.397857052127307</v>
       </c>
       <c r="L18">
-        <v>0.5774640425005089</v>
+        <v>0.4944746026899338</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.229552201136016</v>
+        <v>2.916636683656165</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.693046208386903</v>
+        <v>0.7639341129555248</v>
       </c>
       <c r="C19">
-        <v>0.1324323795847491</v>
+        <v>0.3195931533792926</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1882160875378887</v>
+        <v>0.28328688805572</v>
       </c>
       <c r="F19">
-        <v>1.161910729409769</v>
+        <v>1.945823830263578</v>
       </c>
       <c r="G19">
-        <v>0.3187226264247585</v>
+        <v>0.6710681878377116</v>
       </c>
       <c r="H19">
-        <v>0.2896396199773648</v>
+        <v>0.790900538993462</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.08448670963110771</v>
+        <v>0.05892168270420939</v>
       </c>
       <c r="K19">
-        <v>1.245563116165187</v>
+        <v>0.3945736375306694</v>
       </c>
       <c r="L19">
-        <v>0.5729258292349613</v>
+        <v>0.4933514633831777</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.230174340953127</v>
+        <v>2.918608441813916</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.75936926055499</v>
+        <v>0.7834522065339513</v>
       </c>
       <c r="C20">
-        <v>0.1306649523359535</v>
+        <v>0.3186933473220002</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1929564381727644</v>
+        <v>0.2840493652967879</v>
       </c>
       <c r="F20">
-        <v>1.183428852283669</v>
+        <v>1.946648738676643</v>
       </c>
       <c r="G20">
-        <v>0.3193973097505207</v>
+        <v>0.6690998366959136</v>
       </c>
       <c r="H20">
-        <v>0.2876731210078134</v>
+        <v>0.7886652372649721</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.0864254749412936</v>
+        <v>0.05957766474059412</v>
       </c>
       <c r="K20">
-        <v>1.292386029407993</v>
+        <v>0.4093442756657737</v>
       </c>
       <c r="L20">
-        <v>0.5933761306278456</v>
+        <v>0.4984165824842819</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.227618757975648</v>
+        <v>2.909839844104766</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.982905906580299</v>
+        <v>0.8491211466507593</v>
       </c>
       <c r="C21">
-        <v>0.1249070687898737</v>
+        <v>0.3157736255609773</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.209148563312894</v>
+        <v>0.2867371402428631</v>
       </c>
       <c r="F21">
-        <v>1.258496001481319</v>
+        <v>1.950567892966788</v>
       </c>
       <c r="G21">
-        <v>0.3230006673699961</v>
+        <v>0.6629842075185124</v>
       </c>
       <c r="H21">
-        <v>0.2818288063343601</v>
+        <v>0.781529423025134</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.09294719016440922</v>
+        <v>0.06177481660844819</v>
       </c>
       <c r="K21">
-        <v>1.449960559137907</v>
+        <v>0.458879688310958</v>
       </c>
       <c r="L21">
-        <v>0.6626040319999476</v>
+        <v>0.515623732430015</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.223453396921258</v>
+        <v>2.882208217720887</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.129609967305612</v>
+        <v>0.8921025228650024</v>
       </c>
       <c r="C22">
-        <v>0.1212810732331491</v>
+        <v>0.3139424294328155</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.2199421652995781</v>
+        <v>0.2885872367708515</v>
       </c>
       <c r="F22">
-        <v>1.309755487308479</v>
+        <v>1.953983475071325</v>
       </c>
       <c r="G22">
-        <v>0.3264135727243485</v>
+        <v>0.6593586353923797</v>
       </c>
       <c r="H22">
-        <v>0.2786046603130785</v>
+        <v>0.7771446792531123</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.0972169055889438</v>
+        <v>0.0632055356413872</v>
       </c>
       <c r="K22">
-        <v>1.55318960487881</v>
+        <v>0.4911820822560742</v>
       </c>
       <c r="L22">
-        <v>0.7082727731099396</v>
+        <v>0.5270091224218305</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.224213529768988</v>
+        <v>2.865513404844876</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.051249583096308</v>
+        <v>0.8691571009333074</v>
       </c>
       <c r="C23">
-        <v>0.1232036156742478</v>
+        <v>0.3149127351718199</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.2141612080364155</v>
+        <v>0.2875912774597609</v>
       </c>
       <c r="F23">
-        <v>1.282187208382666</v>
+        <v>1.952082428249895</v>
       </c>
       <c r="G23">
-        <v>0.3244911458017086</v>
+        <v>0.6612596705681426</v>
       </c>
       <c r="H23">
-        <v>0.2802691802633461</v>
+        <v>0.7794593902899152</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.09493729270591444</v>
+        <v>0.06244242274471645</v>
       </c>
       <c r="K23">
-        <v>1.498068291683381</v>
+        <v>0.4739484774572702</v>
       </c>
       <c r="L23">
-        <v>0.6838571288532194</v>
+        <v>0.5209198474187815</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.223476762839994</v>
+        <v>2.874298905503835</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.75572469708078</v>
+        <v>0.7823800122758371</v>
       </c>
       <c r="C24">
-        <v>0.1307613387616797</v>
+        <v>0.3187423706499359</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1926951562769688</v>
+        <v>0.284007018830458</v>
       </c>
       <c r="F24">
-        <v>1.182237094417957</v>
+        <v>1.946599118602052</v>
       </c>
       <c r="G24">
-        <v>0.3193553836546599</v>
+        <v>0.6692060574556891</v>
       </c>
       <c r="H24">
-        <v>0.287778308117602</v>
+        <v>0.7887865800085549</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.08631898216889056</v>
+        <v>0.05954166679628514</v>
       </c>
       <c r="K24">
-        <v>1.289813908718145</v>
+        <v>0.408533479970572</v>
       </c>
       <c r="L24">
-        <v>0.5922512449055688</v>
+        <v>0.4981377156564264</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.227742928105599</v>
+        <v>2.910314491323646</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.439014925041391</v>
+        <v>0.6890775865460625</v>
       </c>
       <c r="C25">
-        <v>0.1394854866069686</v>
+        <v>0.3232047564961267</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.17036157788041</v>
+        <v>0.2805447084191712</v>
       </c>
       <c r="F25">
-        <v>1.083010239530239</v>
+        <v>1.944358953052912</v>
       </c>
       <c r="G25">
-        <v>0.3179662602570517</v>
+        <v>0.6793695273701985</v>
       </c>
       <c r="H25">
-        <v>0.2982643726212189</v>
+        <v>0.8000462502585819</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.07704410266181583</v>
+        <v>0.05639107192389758</v>
       </c>
       <c r="K25">
-        <v>1.065886841297896</v>
+        <v>0.3376858499336493</v>
       </c>
       <c r="L25">
-        <v>0.495017433120239</v>
+        <v>0.4741713248005226</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.246109349676786</v>
+        <v>2.955017082043781</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_250/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_250/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6206553381867081</v>
+        <v>1.206976794040969</v>
       </c>
       <c r="C2">
-        <v>0.3267770552806262</v>
+        <v>0.1463847073350841</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2783447425719281</v>
+        <v>0.1545319900463191</v>
       </c>
       <c r="F2">
-        <v>1.945874857898332</v>
+        <v>1.016438552533344</v>
       </c>
       <c r="G2">
-        <v>0.6882202465645761</v>
+        <v>0.3201109416270072</v>
       </c>
       <c r="H2">
-        <v>0.8093703542944155</v>
+        <v>0.3078642674559617</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.05405308978529888</v>
+        <v>0.07022119396520665</v>
       </c>
       <c r="K2">
-        <v>0.285285936532631</v>
+        <v>0.901235876236484</v>
       </c>
       <c r="L2">
-        <v>0.4570528690655919</v>
+        <v>0.4245159083086634</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.992967561356707</v>
+        <v>1.270254485773989</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5744671232763494</v>
+        <v>1.050161705302997</v>
       </c>
       <c r="C3">
-        <v>0.3293776342582859</v>
+        <v>0.1513494562239277</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2770727828316808</v>
+        <v>0.1441452756069026</v>
       </c>
       <c r="F3">
-        <v>1.948879681086069</v>
+        <v>0.9749567437509157</v>
       </c>
       <c r="G3">
-        <v>0.6950705483605475</v>
+        <v>0.3233545175973873</v>
       </c>
       <c r="H3">
-        <v>0.8163355163702661</v>
+        <v>0.3154624289217764</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.05245750387063808</v>
+        <v>0.06559549787777996</v>
       </c>
       <c r="K3">
-        <v>0.2496342426151443</v>
+        <v>0.78961816926045</v>
       </c>
       <c r="L3">
-        <v>0.4457837983816972</v>
+        <v>0.3772954881245454</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>3.021829277669667</v>
+        <v>1.292682338539549</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5462013731338971</v>
+        <v>0.9540094191845014</v>
       </c>
       <c r="C4">
-        <v>0.3310632386890475</v>
+        <v>0.1545379943282441</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.2764002169633955</v>
+        <v>0.1379231246725823</v>
       </c>
       <c r="F4">
-        <v>1.951701272475148</v>
+        <v>0.9511519899896399</v>
       </c>
       <c r="G4">
-        <v>0.6996966688780901</v>
+        <v>0.3261715044674105</v>
       </c>
       <c r="H4">
-        <v>0.8209312980085173</v>
+        <v>0.3206417013273963</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05147243164009652</v>
+        <v>0.06275277317289962</v>
       </c>
       <c r="K4">
-        <v>0.2276778722190755</v>
+        <v>0.7210173052432225</v>
       </c>
       <c r="L4">
-        <v>0.4390296521563215</v>
+        <v>0.3485408194699602</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>3.041100718047886</v>
+        <v>1.309270450816058</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5347073514663236</v>
+        <v>0.9148489324107913</v>
       </c>
       <c r="C5">
-        <v>0.3317725080468126</v>
+        <v>0.1558722334707117</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.2761534821038509</v>
+        <v>0.1354248271929386</v>
       </c>
       <c r="F5">
-        <v>1.953096923677791</v>
+        <v>0.9418522615480924</v>
       </c>
       <c r="G5">
-        <v>0.7016874233062751</v>
+        <v>0.3275188521300265</v>
       </c>
       <c r="H5">
-        <v>0.8228844266990123</v>
+        <v>0.3228780152626172</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.05106967825046382</v>
+        <v>0.0615934897855297</v>
       </c>
       <c r="K5">
-        <v>0.2187144606285187</v>
+        <v>0.6930383636368447</v>
       </c>
       <c r="L5">
-        <v>0.4363190541772468</v>
+        <v>0.3368781294142167</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>3.049343834289488</v>
+        <v>1.316713996880253</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5328002831919036</v>
+        <v>0.9083474026185172</v>
       </c>
       <c r="C6">
-        <v>0.3318916338550206</v>
+        <v>0.1560958794675322</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2761141655866055</v>
+        <v>0.1350121878599815</v>
       </c>
       <c r="F6">
-        <v>1.95334352539524</v>
+        <v>0.9403317554073212</v>
       </c>
       <c r="G6">
-        <v>0.702024361676358</v>
+        <v>0.3277543897955084</v>
       </c>
       <c r="H6">
-        <v>0.8232135945154795</v>
+        <v>0.3232568464508176</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.05100272180939314</v>
+        <v>0.06140093428214399</v>
       </c>
       <c r="K6">
-        <v>0.2172251437216772</v>
+        <v>0.6883908740872187</v>
       </c>
       <c r="L6">
-        <v>0.4358714918017199</v>
+        <v>0.3349447335025957</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>3.050736144197501</v>
+        <v>1.317990587685813</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5460462603866176</v>
+        <v>0.9534812108111623</v>
       </c>
       <c r="C7">
-        <v>0.3310727135159013</v>
+        <v>0.1545558475659448</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.2763967786043331</v>
+        <v>0.1378892831102476</v>
       </c>
       <c r="F7">
-        <v>1.951719099026548</v>
+        <v>0.9510249703672784</v>
       </c>
       <c r="G7">
-        <v>0.6997230894837827</v>
+        <v>0.3261888784151026</v>
       </c>
       <c r="H7">
-        <v>0.8209573133336008</v>
+        <v>0.3206713565522463</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.0514670053152102</v>
+        <v>0.06273714238829342</v>
       </c>
       <c r="K7">
-        <v>0.2275570525450945</v>
+        <v>0.7206400752220787</v>
       </c>
       <c r="L7">
-        <v>0.4389929266160522</v>
+        <v>0.3483833157937113</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>3.041210309078636</v>
+        <v>1.309368100411831</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6047106346291571</v>
+        <v>1.152872495716196</v>
       </c>
       <c r="C8">
-        <v>0.3276553163445488</v>
+        <v>0.1480672416051725</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.2778837132711516</v>
+        <v>0.1509173117711811</v>
       </c>
       <c r="F8">
-        <v>1.946708370792066</v>
+        <v>1.001779011524746</v>
       </c>
       <c r="G8">
-        <v>0.6904950331436552</v>
+        <v>0.3210529927340673</v>
       </c>
       <c r="H8">
-        <v>0.811705739577441</v>
+        <v>0.3103752709488887</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.05350406113381112</v>
+        <v>0.06862664510310523</v>
       </c>
       <c r="K8">
-        <v>0.2730073005281497</v>
+        <v>0.8627598618910497</v>
       </c>
       <c r="L8">
-        <v>0.4531331729395731</v>
+        <v>0.408181637051257</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>3.002597349552317</v>
+        <v>1.277387687205248</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.7204650701385447</v>
+        <v>1.545480535338584</v>
       </c>
       <c r="C9">
-        <v>0.321657167297392</v>
+        <v>0.1364717996856566</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2816568683676763</v>
+        <v>0.1777833491724152</v>
       </c>
       <c r="F9">
-        <v>1.944622227773266</v>
+        <v>1.115369581785842</v>
       </c>
       <c r="G9">
-        <v>0.6757334140824369</v>
+        <v>0.3179163242965899</v>
       </c>
       <c r="H9">
-        <v>0.7960930197198977</v>
+        <v>0.2944291131282952</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.05745521526228003</v>
+        <v>0.0801666273492998</v>
       </c>
       <c r="K9">
-        <v>0.3615883772946518</v>
+        <v>1.141257662638026</v>
       </c>
       <c r="L9">
-        <v>0.4821628156535098</v>
+        <v>0.5275843019961428</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.939176723485659</v>
+        <v>1.238194481708689</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.8059105286681927</v>
+        <v>1.835744220784477</v>
       </c>
       <c r="C10">
-        <v>0.3176768995585313</v>
+        <v>0.1286641872066969</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.284948178536645</v>
+        <v>0.1984524197213204</v>
       </c>
       <c r="F10">
-        <v>1.947798491924985</v>
+        <v>1.208646012528078</v>
       </c>
       <c r="G10">
-        <v>0.6669238491234069</v>
+        <v>0.3204027913567771</v>
       </c>
       <c r="H10">
-        <v>0.7861607397058705</v>
+        <v>0.2855437711155204</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.06033072540976292</v>
+        <v>0.0886559143025849</v>
       </c>
       <c r="K10">
-        <v>0.4263118002328383</v>
+        <v>1.346264205443759</v>
       </c>
       <c r="L10">
-        <v>0.5042737372267254</v>
+        <v>0.6169779356507661</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.90007838213576</v>
+        <v>1.225441501941901</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.8448621244457968</v>
+        <v>1.968387371458618</v>
       </c>
       <c r="C11">
-        <v>0.315958328200372</v>
+        <v>0.1252722357950766</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.2865575194864718</v>
+        <v>0.208087317869051</v>
       </c>
       <c r="F11">
-        <v>1.950264128018517</v>
+        <v>1.253506469715049</v>
       </c>
       <c r="G11">
-        <v>0.6633588554547671</v>
+        <v>0.3227068301092757</v>
       </c>
       <c r="H11">
-        <v>0.7819755529435781</v>
+        <v>0.2821733764588288</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.0616327472216156</v>
+        <v>0.09252419577982351</v>
       </c>
       <c r="K11">
-        <v>0.4556739814019863</v>
+        <v>1.439736828829297</v>
       </c>
       <c r="L11">
-        <v>0.5145005725524356</v>
+        <v>0.6580942493136206</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.883919213253009</v>
+        <v>1.223524321729982</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.8596231178937614</v>
+        <v>2.018719612461553</v>
       </c>
       <c r="C12">
-        <v>0.3153207567278216</v>
+        <v>0.1240112577274246</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.2871829858600208</v>
+        <v>0.2117718388096392</v>
       </c>
       <c r="F12">
-        <v>1.951344375344064</v>
+        <v>1.270869122705832</v>
       </c>
       <c r="G12">
-        <v>0.6620725733127983</v>
+        <v>0.3237597826873468</v>
       </c>
       <c r="H12">
-        <v>0.7804385693877265</v>
+        <v>0.2809987882573495</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.06212489657890075</v>
+        <v>0.09399027178171337</v>
       </c>
       <c r="K12">
-        <v>0.4667805251117727</v>
+        <v>1.47517399468623</v>
       </c>
       <c r="L12">
-        <v>0.5183972113485709</v>
+        <v>0.6737362547064834</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.878034101683099</v>
+        <v>1.223392648194945</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.8564436051426014</v>
+        <v>2.007874795943735</v>
       </c>
       <c r="C13">
-        <v>0.3154574818524587</v>
+        <v>0.1242817793038462</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.2870475681570497</v>
+        <v>0.2109766677921954</v>
       </c>
       <c r="F13">
-        <v>1.951105209724261</v>
+        <v>1.267112660260295</v>
       </c>
       <c r="G13">
-        <v>0.662346762852188</v>
+        <v>0.3235247884555363</v>
       </c>
       <c r="H13">
-        <v>0.7807674584870625</v>
+        <v>0.2812471481100047</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.06201894376909678</v>
+        <v>0.09367446566491822</v>
       </c>
       <c r="K13">
-        <v>0.4643890886132169</v>
+        <v>1.467539965914256</v>
       </c>
       <c r="L13">
-        <v>0.517556939169225</v>
+        <v>0.6703641380070309</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.879291156706572</v>
+        <v>1.223393979658823</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.8460763077160891</v>
+        <v>1.972526067445472</v>
       </c>
       <c r="C14">
-        <v>0.3159056101240321</v>
+        <v>0.1251680208047308</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.2866086558796184</v>
+        <v>0.2083897089498166</v>
       </c>
       <c r="F14">
-        <v>1.950350064491317</v>
+        <v>1.254927237330207</v>
       </c>
       <c r="G14">
-        <v>0.6632517551382691</v>
+        <v>0.3227897701484963</v>
       </c>
       <c r="H14">
-        <v>0.7818481454920345</v>
+        <v>0.2820746734371582</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.06167325479410835</v>
+        <v>0.09264478398678477</v>
       </c>
       <c r="K14">
-        <v>0.4565879732246287</v>
+        <v>1.442651379987552</v>
       </c>
       <c r="L14">
-        <v>0.514820672742573</v>
+        <v>0.6593796367476443</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.883430351151446</v>
+        <v>1.223501364709577</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.839727426777813</v>
+        <v>1.950887902950114</v>
       </c>
       <c r="C15">
-        <v>0.3161818217525418</v>
+        <v>0.1257139425781144</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.2863418965360935</v>
+        <v>0.2068098884951795</v>
       </c>
       <c r="F15">
-        <v>1.949906596800275</v>
+        <v>1.247512938306286</v>
       </c>
       <c r="G15">
-        <v>0.6638143871844377</v>
+        <v>0.3223634147686951</v>
       </c>
       <c r="H15">
-        <v>0.7825163286255972</v>
+        <v>0.2825949598443032</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.06146139258227379</v>
+        <v>0.09201424555703142</v>
       </c>
       <c r="K15">
-        <v>0.4518079465953235</v>
+        <v>1.427412075873377</v>
       </c>
       <c r="L15">
-        <v>0.5131477426880622</v>
+        <v>0.6526609346978205</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.885996205111653</v>
+        <v>1.223645640070444</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.8033665216762813</v>
+        <v>1.827089174359998</v>
       </c>
       <c r="C16">
-        <v>0.3177910627664637</v>
+        <v>0.1288891168447339</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.2848452536261021</v>
+        <v>0.1978276497305202</v>
       </c>
       <c r="F16">
-        <v>1.947657878197901</v>
+        <v>1.205765309193282</v>
       </c>
       <c r="G16">
-        <v>0.667165740467361</v>
+        <v>0.320276810952457</v>
       </c>
       <c r="H16">
-        <v>0.7864409502633123</v>
+        <v>0.2857779798375688</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.0602455109873361</v>
+        <v>0.08840326930914699</v>
       </c>
       <c r="K16">
-        <v>0.4243912301967327</v>
+        <v>1.340160723373145</v>
       </c>
       <c r="L16">
-        <v>0.5036087566336818</v>
+        <v>0.6143005735738427</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.9011671648137</v>
+        <v>1.225647961352223</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.7810806338040663</v>
+        <v>1.75130809406383</v>
       </c>
       <c r="C17">
-        <v>0.3188018435612641</v>
+        <v>0.1308782563454116</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.2839557702982844</v>
+        <v>0.1923786481515464</v>
       </c>
       <c r="F17">
-        <v>1.946539644108725</v>
+        <v>1.180794317596764</v>
       </c>
       <c r="G17">
-        <v>0.6693350772265134</v>
+        <v>0.3193053251844589</v>
       </c>
       <c r="H17">
-        <v>0.788933855765066</v>
+        <v>0.2879062206106155</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.05949803563024858</v>
+        <v>0.08618992360948852</v>
       </c>
       <c r="K17">
-        <v>0.4075507944153287</v>
+        <v>1.286696792325245</v>
       </c>
       <c r="L17">
-        <v>0.4977998559286902</v>
+        <v>0.5908882417347314</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.910890788732189</v>
+        <v>1.227895911173889</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.7682701566120613</v>
+        <v>1.707776292878464</v>
       </c>
       <c r="C18">
-        <v>0.3193918857437197</v>
+        <v>0.1320373634313761</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.2834547197081392</v>
+        <v>0.1892662412517296</v>
       </c>
       <c r="F18">
-        <v>1.945992555127319</v>
+        <v>1.166658614919712</v>
       </c>
       <c r="G18">
-        <v>0.6706244704659241</v>
+        <v>0.318856205186691</v>
       </c>
       <c r="H18">
-        <v>0.7903990602107029</v>
+        <v>0.2891932157146968</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.05906753854855396</v>
+        <v>0.08491745409008189</v>
       </c>
       <c r="K18">
-        <v>0.397857052127307</v>
+        <v>1.255965244684887</v>
       </c>
       <c r="L18">
-        <v>0.4944746026899338</v>
+        <v>0.5774640425003525</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.916636683656165</v>
+        <v>1.229552201136059</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.7639341129555248</v>
+        <v>1.693046208386988</v>
       </c>
       <c r="C19">
-        <v>0.3195931533792926</v>
+        <v>0.1324323795848077</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.28328688805572</v>
+        <v>0.1882160875379171</v>
       </c>
       <c r="F19">
-        <v>1.945823830263578</v>
+        <v>1.161910729409755</v>
       </c>
       <c r="G19">
-        <v>0.6710681878377116</v>
+        <v>0.3187226264247585</v>
       </c>
       <c r="H19">
-        <v>0.790900538993462</v>
+        <v>0.2896396199773648</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.05892168270420939</v>
+        <v>0.08448670963112903</v>
       </c>
       <c r="K19">
-        <v>0.3945736375306694</v>
+        <v>1.24556311616513</v>
       </c>
       <c r="L19">
-        <v>0.4933514633831777</v>
+        <v>0.5729258292349897</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.918608441813916</v>
+        <v>1.230174340953084</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.7834522065339513</v>
+        <v>1.759369260555331</v>
       </c>
       <c r="C20">
-        <v>0.3186933473220002</v>
+        <v>0.1306649523361116</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.2840493652967879</v>
+        <v>0.1929564381727644</v>
       </c>
       <c r="F20">
-        <v>1.946648738676643</v>
+        <v>1.183428852283683</v>
       </c>
       <c r="G20">
-        <v>0.6690998366959136</v>
+        <v>0.3193973097505065</v>
       </c>
       <c r="H20">
-        <v>0.7886652372649721</v>
+        <v>0.2876731210078134</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.05957766474059412</v>
+        <v>0.08642547494130071</v>
       </c>
       <c r="K20">
-        <v>0.4093442756657737</v>
+        <v>1.292386029407993</v>
       </c>
       <c r="L20">
-        <v>0.4984165824842819</v>
+        <v>0.5933761306279308</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.909839844104766</v>
+        <v>1.227618757975605</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.8491211466507593</v>
+        <v>1.982905906580413</v>
       </c>
       <c r="C21">
-        <v>0.3157736255609773</v>
+        <v>0.1249070687898737</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.2867371402428631</v>
+        <v>0.2091485633129011</v>
       </c>
       <c r="F21">
-        <v>1.950567892966788</v>
+        <v>1.258496001481333</v>
       </c>
       <c r="G21">
-        <v>0.6629842075185124</v>
+        <v>0.323000667370124</v>
       </c>
       <c r="H21">
-        <v>0.781529423025134</v>
+        <v>0.2818288063343672</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.06177481660844819</v>
+        <v>0.09294719016440922</v>
       </c>
       <c r="K21">
-        <v>0.458879688310958</v>
+        <v>1.449960559137907</v>
       </c>
       <c r="L21">
-        <v>0.515623732430015</v>
+        <v>0.6626040319999333</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.882208217720887</v>
+        <v>1.223453396921244</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.8921025228650024</v>
+        <v>2.129609967305782</v>
       </c>
       <c r="C22">
-        <v>0.3139424294328155</v>
+        <v>0.1212810732331455</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.2885872367708515</v>
+        <v>0.2199421652996065</v>
       </c>
       <c r="F22">
-        <v>1.953983475071325</v>
+        <v>1.309755487308479</v>
       </c>
       <c r="G22">
-        <v>0.6593586353923797</v>
+        <v>0.3264135727242845</v>
       </c>
       <c r="H22">
-        <v>0.7771446792531123</v>
+        <v>0.2786046603131922</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.0632055356413872</v>
+        <v>0.0972169055889367</v>
       </c>
       <c r="K22">
-        <v>0.4911820822560742</v>
+        <v>1.553189604878781</v>
       </c>
       <c r="L22">
-        <v>0.5270091224218305</v>
+        <v>0.7082727731098117</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.865513404844876</v>
+        <v>1.224213529768974</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.8691571009333074</v>
+        <v>2.051249583096364</v>
       </c>
       <c r="C23">
-        <v>0.3149127351718199</v>
+        <v>0.1232036156740204</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.2875912774597609</v>
+        <v>0.2141612080364013</v>
       </c>
       <c r="F23">
-        <v>1.952082428249895</v>
+        <v>1.282187208382652</v>
       </c>
       <c r="G23">
-        <v>0.6612596705681426</v>
+        <v>0.3244911458017583</v>
       </c>
       <c r="H23">
-        <v>0.7794593902899152</v>
+        <v>0.280269180263339</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.06244242274471645</v>
+        <v>0.09493729270602813</v>
       </c>
       <c r="K23">
-        <v>0.4739484774572702</v>
+        <v>1.498068291683296</v>
       </c>
       <c r="L23">
-        <v>0.5209198474187815</v>
+        <v>0.6838571288533331</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.874298905503835</v>
+        <v>1.223476762839979</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.7823800122758371</v>
+        <v>1.755724697080751</v>
       </c>
       <c r="C24">
-        <v>0.3187423706499359</v>
+        <v>0.1307613387616957</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.284007018830458</v>
+        <v>0.1926951562769403</v>
       </c>
       <c r="F24">
-        <v>1.946599118602052</v>
+        <v>1.182237094417943</v>
       </c>
       <c r="G24">
-        <v>0.6692060574556891</v>
+        <v>0.3193553836546599</v>
       </c>
       <c r="H24">
-        <v>0.7887865800085549</v>
+        <v>0.2877783081174954</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.05954166679628514</v>
+        <v>0.08631898216896872</v>
       </c>
       <c r="K24">
-        <v>0.408533479970572</v>
+        <v>1.28981390871806</v>
       </c>
       <c r="L24">
-        <v>0.4981377156564264</v>
+        <v>0.5922512449055404</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.910314491323646</v>
+        <v>1.227742928105613</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.6890775865460625</v>
+        <v>1.439014925041562</v>
       </c>
       <c r="C25">
-        <v>0.3232047564961267</v>
+        <v>0.13948548660745</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.2805447084191712</v>
+        <v>0.1703615778804171</v>
       </c>
       <c r="F25">
-        <v>1.944358953052912</v>
+        <v>1.083010239530239</v>
       </c>
       <c r="G25">
-        <v>0.6793695273701985</v>
+        <v>0.3179662602569806</v>
       </c>
       <c r="H25">
-        <v>0.8000462502585819</v>
+        <v>0.2982643726212189</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.05639107192389758</v>
+        <v>0.0770441026619082</v>
       </c>
       <c r="K25">
-        <v>0.3376858499336493</v>
+        <v>1.065886841297726</v>
       </c>
       <c r="L25">
-        <v>0.4741713248005226</v>
+        <v>0.4950174331202959</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.955017082043781</v>
+        <v>1.246109349676743</v>
       </c>
     </row>
   </sheetData>
